--- a/table.xlsx
+++ b/table.xlsx
@@ -585,7 +585,7 @@
         <v>test</v>
       </c>
       <c r="D9" t="str">
-        <v>D:\Wires</v>
+        <v>D:\W</v>
       </c>
       <c r="E9" t="str">
         <v>folder</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -585,7 +585,7 @@
         <v>test</v>
       </c>
       <c r="D9" t="str">
-        <v>D:\W</v>
+        <v>D:\Wireshark</v>
       </c>
       <c r="E9" t="str">
         <v>folder</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -485,7 +485,7 @@
         <v>DH3项目J2阶段评审材料输入信息</v>
       </c>
       <c r="D4" t="str">
-        <v>\10.4.9.25\Project\DH系列\060-整车开发\DH3\J2评审输入</v>
+        <v>\\10.4.9.25\Project\DH系列\060-整车开发\DH3\J2评审输入</v>
       </c>
       <c r="E4" t="str">
         <v>folder</v>
@@ -585,7 +585,7 @@
         <v>test</v>
       </c>
       <c r="D9" t="str">
-        <v>D:\Wireshark</v>
+        <v>D://Wireshark//</v>
       </c>
       <c r="E9" t="str">
         <v>folder</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -434,7 +434,7 @@
         <v>备注</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2">
         <v>1</v>
       </c>
@@ -450,8 +450,9 @@
       <c r="E2" t="str">
         <v>url</v>
       </c>
-      <c r="F2" t="str">
-        <v>DH3项目主计划10月9日版本</v>
+      <c r="F2" t="str" xml:space="preserve">
+        <v xml:space="preserve">飞书，DH3项目主计划
+10月9日版本</v>
       </c>
     </row>
     <row r="3">
@@ -465,13 +466,13 @@
         <v>DH3电子电气拓扑图</v>
       </c>
       <c r="D3" t="str">
-        <v>w:/yling</v>
+        <v>w://yling</v>
       </c>
       <c r="E3" t="str">
         <v>folder</v>
       </c>
       <c r="F3" t="str">
-        <v>内网  w://yling</v>
+        <v>内网，w://yling</v>
       </c>
     </row>
     <row r="4">
@@ -551,7 +552,7 @@
         <v>url</v>
       </c>
       <c r="F7" t="str">
-        <v>飞书 包含华为座舱、智驾、网联相关接口人信息</v>
+        <v>飞书，包含华为座舱、智驾、网联相关接口人信息</v>
       </c>
     </row>
     <row r="8">
@@ -571,7 +572,7 @@
         <v>url</v>
       </c>
       <c r="F8" t="str">
-        <v>飞书 仅包含东风研发总院智软内部相关责任人分工，仅智软群成员可访问</v>
+        <v>飞书，仅包含东风研发总院智软内部相关责任人分工，仅智软群成员可访问</v>
       </c>
     </row>
   </sheetData>

--- a/table.xlsx
+++ b/table.xlsx
@@ -466,13 +466,13 @@
         <v>DH3电子电气拓扑图</v>
       </c>
       <c r="D3" t="str">
-        <v>w://yling</v>
+        <v>w:\yling</v>
       </c>
       <c r="E3" t="str">
         <v>folder</v>
       </c>
       <c r="F3" t="str">
-        <v>内网，w://yling</v>
+        <v>内网，w://yling，请确保你的账号已经切换到内网</v>
       </c>
     </row>
     <row r="4">

--- a/table.xlsx
+++ b/table.xlsx
@@ -455,7 +455,7 @@
 10月9日版本</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" xml:space="preserve">
       <c r="A3">
         <v>2</v>
       </c>
@@ -471,8 +471,9 @@
       <c r="E3" t="str">
         <v>folder</v>
       </c>
-      <c r="F3" t="str">
-        <v>内网，w://yling，请确保你的账号已经切换到内网</v>
+      <c r="F3" t="str" xml:space="preserve">
+        <v xml:space="preserve">内网，w://yling
+请确保你的账号已经切换到内网</v>
       </c>
     </row>
     <row r="4">

--- a/table.xlsx
+++ b/table.xlsx
@@ -561,7 +561,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>开发计划</v>
+        <v>联系信息</v>
       </c>
       <c r="C8" t="str">
         <v>DH3项目研发总院智软内部责任分工</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -576,9 +576,29 @@
         <v>飞书，仅包含东风研发总院智软内部相关责任人分工，仅智软群成员可访问</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>ad定点</v>
+      </c>
+      <c r="C9" t="str">
+        <v>test</v>
+      </c>
+      <c r="D9" t="str">
+        <v>艾师傅</v>
+      </c>
+      <c r="E9" t="str">
+        <v>folder</v>
+      </c>
+      <c r="F9" t="str">
+        <v>大幅度辅导</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -576,29 +576,9 @@
         <v>飞书，仅包含东风研发总院智软内部相关责任人分工，仅智软群成员可访问</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <v>ad定点</v>
-      </c>
-      <c r="C9" t="str">
-        <v>test</v>
-      </c>
-      <c r="D9" t="str">
-        <v>艾师傅</v>
-      </c>
-      <c r="E9" t="str">
-        <v>folder</v>
-      </c>
-      <c r="F9" t="str">
-        <v>大幅度辅导</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -487,7 +487,7 @@
         <v>DH3项目J2阶段评审材料输入信息</v>
       </c>
       <c r="D4" t="str">
-        <v>\\10.4.9.25\Project\DH系列\060-整车开发\DH3\J2评审输入</v>
+        <v>\\\\10.4.9.25\Project\DH系列\060-整车开发\DH3\J2评审输入</v>
       </c>
       <c r="E4" t="str">
         <v>folder</v>
@@ -507,7 +507,7 @@
         <v>DH3项目J2阶段评审材料归档路径</v>
       </c>
       <c r="D5" t="str">
-        <v>\\10.4.9.25\Project\DH系列\130-智能软件\DH3\130100_ 阶段评审材料\130102_ J2阶段评审材料及会议纪要</v>
+        <v>\\\\10.4.9.25\Project\DH系列\130-智能软件\DH3\130100_ 阶段评审材料\130102_ J2阶段评审材料及会议纪要</v>
       </c>
       <c r="E5" t="str">
         <v>folder</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -472,7 +472,7 @@
         <v>folder</v>
       </c>
       <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">内网，w://yling
+        <v xml:space="preserve">内网，w:\yling
 请确保你的账号已经切换到内网</v>
       </c>
     </row>

--- a/table.xlsx
+++ b/table.xlsx
@@ -487,7 +487,7 @@
         <v>DH3项目J2阶段评审材料输入信息</v>
       </c>
       <c r="D4" t="str">
-        <v>\\\\10.4.9.25\Project\DH系列\060-整车开发\DH3\J2评审输入</v>
+        <v>\\\\10.4.9.25\\Project\\DH系列\\060-整车开发\\DH3\\J2评审输入</v>
       </c>
       <c r="E4" t="str">
         <v>folder</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -487,7 +487,7 @@
         <v>DH3项目J2阶段评审材料输入信息</v>
       </c>
       <c r="D4" t="str">
-        <v>\\\\10.4.9.25\\Project\\DH系列\\060-整车开发\\DH3\\J2评审输入</v>
+        <v>\\10.4.9.25\Project\DH系列\060-整车开发\DH3\J2评审输入</v>
       </c>
       <c r="E4" t="str">
         <v>folder</v>
@@ -507,7 +507,7 @@
         <v>DH3项目J2阶段评审材料归档路径</v>
       </c>
       <c r="D5" t="str">
-        <v>\\\\10.4.9.25\Project\DH系列\130-智能软件\DH3\130100_ 阶段评审材料\130102_ J2阶段评审材料及会议纪要</v>
+        <v>\\10.4.9.25\Project\DH系列\130-智能软件\DH3\130100_ 阶段评审材料\130102_ J2阶段评审材料及会议纪要</v>
       </c>
       <c r="E5" t="str">
         <v>folder</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -576,9 +576,29 @@
         <v>飞书，仅包含东风研发总院智软内部相关责任人分工，仅智软群成员可访问</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>联系信息</v>
+      </c>
+      <c r="C9" t="str">
+        <v>DH项目联系清单</v>
+      </c>
+      <c r="D9" t="str">
+        <v>https://acndoaymjsa1.feishu.cn/sheets/Gbh8sTDmdhMD9DtZcC2c7trunRe</v>
+      </c>
+      <c r="E9" t="str">
+        <v>url</v>
+      </c>
+      <c r="F9" t="str">
+        <v>飞书，DH项目整体联系人</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -596,9 +596,49 @@
         <v>飞书，DH项目整体联系人</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>再发防止</v>
+      </c>
+      <c r="C10" t="str">
+        <v>DH3 LLR与PRC再发防止 - 总院级</v>
+      </c>
+      <c r="D10" t="str">
+        <v>https://doc.weixin.qq.com/sheet/e3_AKkAcQbnAKcCNoUhJadOcRr27t3Mb?scode=AGwAPQeYAA0i5kLUWBAbgALQaUAJ8&amp;version=5.0.0.8619&amp;platform=win&amp;tab=mfripw</v>
+      </c>
+      <c r="E10" t="str">
+        <v>url</v>
+      </c>
+      <c r="F10" t="str">
+        <v>【企微】DH3 LLR与PRC再发防止 - 总院级</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>再发防止</v>
+      </c>
+      <c r="C11" t="str">
+        <v>DH3不满再发防止 - 整车级</v>
+      </c>
+      <c r="D11" t="str">
+        <v>https://acndoaymjsa1.feishu.cn/file/BzEsbuCLCowqs2xT1y0cRe1JnSb</v>
+      </c>
+      <c r="E11" t="str">
+        <v>url</v>
+      </c>
+      <c r="F11" t="str">
+        <v>【飞书】DH3不满再发防止 - 整车级</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -613,7 +613,7 @@
         <v>url</v>
       </c>
       <c r="F10" t="str">
-        <v>【企微】DH3 LLR与PRC再发防止 - 总院级</v>
+        <v>企微，DH3 LLR与PRC再发防止 - 总院级</v>
       </c>
     </row>
     <row r="11">
@@ -633,7 +633,7 @@
         <v>url</v>
       </c>
       <c r="F11" t="str">
-        <v>【飞书】DH3不满再发防止 - 整车级</v>
+        <v>飞书，DH3不满再发防止 - 整车级</v>
       </c>
     </row>
   </sheetData>

--- a/table.xlsx
+++ b/table.xlsx
@@ -434,25 +434,24 @@
         <v>备注</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>开发计划</v>
+        <v>阶段评审</v>
       </c>
       <c r="C2" t="str">
-        <v>DH3项目主计划</v>
+        <v>DH3项目J2阶段评审材料输入信息</v>
       </c>
       <c r="D2" t="str">
-        <v>https://acndoaymjsa1.feishu.cn/slides/QCyasDe1zlyqN1d1kJAcX753n2d</v>
+        <v>\\10.4.9.25\Project\DH系列\060-整车开发\DH3\J2评审输入</v>
       </c>
       <c r="E2" t="str">
-        <v>url</v>
-      </c>
-      <c r="F2" t="str" xml:space="preserve">
-        <v xml:space="preserve">飞书，DH3项目主计划
-10月9日版本</v>
+        <v>folder</v>
+      </c>
+      <c r="F2" t="str">
+        <v>外网，J2阶段输入物数据库</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
@@ -460,40 +459,41 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
+        <v>开发计划</v>
+      </c>
+      <c r="C3" t="str">
+        <v>DH3项目主计划</v>
+      </c>
+      <c r="D3" t="str">
+        <v>https://acndoaymjsa1.feishu.cn/slides/QCyasDe1zlyqN1d1kJAcX753n2d</v>
+      </c>
+      <c r="E3" t="str">
+        <v>url</v>
+      </c>
+      <c r="F3" t="str" xml:space="preserve">
+        <v xml:space="preserve">飞书，DH3项目主计划
+10月9日版本</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
         <v>设计评审</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C4" t="str">
         <v>DH3电子电气拓扑图</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D4" t="str">
         <v>w:\yling</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E4" t="str">
         <v>folder</v>
       </c>
-      <c r="F3" t="str" xml:space="preserve">
+      <c r="F4" t="str" xml:space="preserve">
         <v xml:space="preserve">内网，w:\yling
 请确保你的账号已经切换到内网</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>阶段评审</v>
-      </c>
-      <c r="C4" t="str">
-        <v>DH3项目J2阶段评审材料输入信息</v>
-      </c>
-      <c r="D4" t="str">
-        <v>\\10.4.9.25\Project\DH系列\060-整车开发\DH3\J2评审输入</v>
-      </c>
-      <c r="E4" t="str">
-        <v>folder</v>
-      </c>
-      <c r="F4" t="str">
-        <v>外网，J2阶段输入物数据库</v>
       </c>
     </row>
     <row r="5">

--- a/table.xlsx
+++ b/table.xlsx
@@ -434,24 +434,25 @@
         <v>备注</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>阶段评审</v>
+        <v>开发计划</v>
       </c>
       <c r="C2" t="str">
-        <v>DH3项目J2阶段评审材料输入信息</v>
+        <v>DH3项目主计划</v>
       </c>
       <c r="D2" t="str">
-        <v>\\10.4.9.25\Project\DH系列\060-整车开发\DH3\J2评审输入</v>
+        <v>https://acndoaymjsa1.feishu.cn/slides/QCyasDe1zlyqN1d1kJAcX753n2d</v>
       </c>
       <c r="E2" t="str">
-        <v>folder</v>
-      </c>
-      <c r="F2" t="str">
-        <v>外网，J2阶段输入物数据库</v>
+        <v>url</v>
+      </c>
+      <c r="F2" t="str" xml:space="preserve">
+        <v xml:space="preserve">飞书，DH3项目主计划
+10月9日版本</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
@@ -459,41 +460,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>开发计划</v>
+        <v>设计评审</v>
       </c>
       <c r="C3" t="str">
-        <v>DH3项目主计划</v>
+        <v>DH3电子电气拓扑图</v>
       </c>
       <c r="D3" t="str">
-        <v>https://acndoaymjsa1.feishu.cn/slides/QCyasDe1zlyqN1d1kJAcX753n2d</v>
+        <v>w:\yling</v>
       </c>
       <c r="E3" t="str">
-        <v>url</v>
+        <v>folder</v>
       </c>
       <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">飞书，DH3项目主计划
-10月9日版本</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
+        <v xml:space="preserve">内网，w:\yling
+请确保你的账号已经切换到内网</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>设计评审</v>
+        <v>阶段评审</v>
       </c>
       <c r="C4" t="str">
-        <v>DH3电子电气拓扑图</v>
+        <v>DH3项目J2阶段评审材料归档路径</v>
       </c>
       <c r="D4" t="str">
-        <v>w:\yling</v>
+        <v>\\10.4.9.25\Project\DH系列\130-智能软件\DH3\130100_ 阶段评审材料\130102_ J2阶段评审材料及会议纪要</v>
       </c>
       <c r="E4" t="str">
         <v>folder</v>
       </c>
-      <c r="F4" t="str" xml:space="preserve">
-        <v xml:space="preserve">内网，w:\yling
-请确保你的账号已经切换到内网</v>
+      <c r="F4" t="str">
+        <v>外网，请大家把J2材料及会议纪要放入此文件夹</v>
       </c>
     </row>
     <row r="5">
@@ -501,19 +501,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>阶段评审</v>
+        <v>开发计划</v>
       </c>
       <c r="C5" t="str">
-        <v>DH3项目J2阶段评审材料归档路径</v>
+        <v>DH3项目智软控制器开发计划</v>
       </c>
       <c r="D5" t="str">
-        <v>\\10.4.9.25\Project\DH系列\130-智能软件\DH3\130100_ 阶段评审材料\130102_ J2阶段评审材料及会议纪要</v>
+        <v>https://acndoaymjsa1.feishu.cn/file/K8KlbxqKmoZV2HxoG94ccLotnne</v>
       </c>
       <c r="E5" t="str">
-        <v>folder</v>
+        <v>url</v>
       </c>
       <c r="F5" t="str">
-        <v>外网，请大家把J2材料及会议纪要放入此文件夹</v>
+        <v>飞书，请大家在此更新各自开发计划</v>
       </c>
     </row>
     <row r="6">
@@ -521,19 +521,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>开发计划</v>
+        <v>阶段评审</v>
       </c>
       <c r="C6" t="str">
-        <v>DH3项目智软控制器开发计划</v>
+        <v>DH3项目J2阶段评审材料输入信息</v>
       </c>
       <c r="D6" t="str">
-        <v>https://acndoaymjsa1.feishu.cn/file/K8KlbxqKmoZV2HxoG94ccLotnne</v>
+        <v>\\10.4.9.25\Project\DH系列\060-整车开发\DH3\J2评审输入</v>
       </c>
       <c r="E6" t="str">
-        <v>url</v>
+        <v>folder</v>
       </c>
       <c r="F6" t="str">
-        <v>飞书，请大家在此更新各自开发计划</v>
+        <v>外网，J2阶段输入物数据库</v>
       </c>
     </row>
     <row r="7">
@@ -544,16 +544,16 @@
         <v>联系信息</v>
       </c>
       <c r="C7" t="str">
-        <v>DH3项目华为接口联系人清单</v>
+        <v>DH项目联系清单</v>
       </c>
       <c r="D7" t="str">
-        <v>https://acndoaymjsa1.feishu.cn/file/NI95bmHjpoopKBxVGhrc7S9SnUc</v>
+        <v>https://acndoaymjsa1.feishu.cn/sheets/Gbh8sTDmdhMD9DtZcC2c7trunRe</v>
       </c>
       <c r="E7" t="str">
         <v>url</v>
       </c>
       <c r="F7" t="str">
-        <v>飞书，包含华为座舱、智驾、网联相关接口人信息</v>
+        <v>飞书，DH项目整体联系人</v>
       </c>
     </row>
     <row r="8">
@@ -564,16 +564,16 @@
         <v>联系信息</v>
       </c>
       <c r="C8" t="str">
-        <v>DH3项目研发总院智软内部责任分工</v>
+        <v>DH3项目华为接口联系人清单</v>
       </c>
       <c r="D8" t="str">
-        <v>https://acndoaymjsa1.feishu.cn/wiki/YyMcwejHNifAkfk0aEXcjdeQnTb?table=tbltH0YNXCFoOxNm&amp;view=vewS54CcOf</v>
+        <v>https://acndoaymjsa1.feishu.cn/file/NI95bmHjpoopKBxVGhrc7S9SnUc</v>
       </c>
       <c r="E8" t="str">
         <v>url</v>
       </c>
       <c r="F8" t="str">
-        <v>飞书，仅包含东风研发总院智软内部相关责任人分工，仅智软群成员可访问</v>
+        <v>飞书，包含华为座舱、智驾、网联相关接口人信息</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>联系信息</v>
       </c>
       <c r="C9" t="str">
-        <v>DH项目联系清单</v>
+        <v>DH3项目研发总院智软内部责任分工</v>
       </c>
       <c r="D9" t="str">
-        <v>https://acndoaymjsa1.feishu.cn/sheets/Gbh8sTDmdhMD9DtZcC2c7trunRe</v>
+        <v>https://acndoaymjsa1.feishu.cn/wiki/YyMcwejHNifAkfk0aEXcjdeQnTb?table=tbltH0YNXCFoOxNm&amp;view=vewS54CcOf</v>
       </c>
       <c r="E9" t="str">
         <v>url</v>
       </c>
       <c r="F9" t="str">
-        <v>飞书，DH项目整体联系人</v>
+        <v>飞书，仅包含东风研发总院智软内部相关责任人分工，仅智软群成员可访问</v>
       </c>
     </row>
     <row r="10">
